--- a/m11/unityProject/Assets/app/0100_Base/MainControl/doc/MainControl.xlsx
+++ b/m11/unityProject/Assets/app/0100_Base/MainControl/doc/MainControl.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A5A542-8D7F-4C29-A93A-B7CF810F819C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71F4382-E456-4A9F-BC90-4DE790E89900}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="setting.ini" sheetId="5" r:id="rId2"/>
-    <sheet name="help" sheetId="4" r:id="rId3"/>
-    <sheet name="template-statefunc" sheetId="3" r:id="rId4"/>
-    <sheet name="template-source" sheetId="2" r:id="rId5"/>
+    <sheet name="config" sheetId="6" r:id="rId2"/>
+    <sheet name="setting.ini" sheetId="5" r:id="rId3"/>
+    <sheet name="help" sheetId="4" r:id="rId4"/>
+    <sheet name="template-statefunc" sheetId="3" r:id="rId5"/>
+    <sheet name="template-source" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -24,216 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ステート関数</t>
-    <rPh sb="4" eb="6">
-      <t>カンスウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>state-cmt</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>nextstate</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>次ステート</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ステート関数説明</t>
-    <rPh sb="4" eb="6">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>branch</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ait</t>
-    </r>
-    <phoneticPr fontId="11"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>thumbnail</t>
   </si>
   <si>
-    <t>S_START</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>S_END</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>開始</t>
-    <rPh sb="0" eb="2">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>終了</t>
-    <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>nowait</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nit</t>
-    </r>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pdate</t>
-    </r>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
-      <t>!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dir</t>
-    </r>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
-      <t>!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uuid</t>
-    </r>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>post_wait</t>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nit-cmt</t>
-    </r>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pdate-cmt</t>
-    </r>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ait-cmt</t>
-    </r>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>post_wait-cmt</t>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">:output=MainControl_created.cs_x000D_
@@ -517,25 +314,171 @@
 _x000D_
 </t>
   </si>
+  <si>
+    <t>(bitmap)</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>ステート関数</t>
+  </si>
+  <si>
+    <t>S_START</t>
+  </si>
+  <si>
+    <t>S_END</t>
+  </si>
+  <si>
+    <t>S_WAIT_BUT</t>
+  </si>
+  <si>
+    <t>S_DISPEROR</t>
+  </si>
+  <si>
+    <t>state-cmt</t>
+  </si>
+  <si>
+    <t>ステート関数説明</t>
+  </si>
+  <si>
+    <t>開始</t>
+  </si>
+  <si>
+    <t>終了</t>
+  </si>
+  <si>
+    <t>Wait for new button</t>
+  </si>
+  <si>
+    <t>Diplay Error</t>
+  </si>
+  <si>
+    <t>nextstate</t>
+  </si>
+  <si>
+    <t>次ステート</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>disp_error();</t>
+  </si>
+  <si>
+    <t>init-cmt</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>update-cmt</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>wait-cmt</t>
+  </si>
+  <si>
+    <t>post_wait-cmt</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>br_BUT05(S_DISPEROR);</t>
+  </si>
+  <si>
+    <t>nowait</t>
+  </si>
+  <si>
+    <t>!dir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/
+(100,100)
+</t>
+  </si>
+  <si>
+    <t>!uuid</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/07/17 14:46:15
+; * pssgEditor version : 0.7.0.c45d4ead4b1995a4369ae1b5d0ab6e1c31b12889
+psggfile=@@@
+MainControl.psgg
+@@@
+xlsfile=@@@
+MainControl.xlsx
+@@@
+guid=@@@
+0350716e-e381-4303-9f2b-a5a0791766de
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":943,"y":135}},{"Key":"S_0001","Value":{"x":293,"y":231}},{"Key":"S_0002","Value":{"x":537,"y":228}},{"Key":"S_DISPEROR","Value":{"x":537,"y":228}},{"Key":"S_WAIT_BUT","Value":{"x":293,"y":231}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=0
+option_delete_br_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-4
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,124 +754,142 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="14" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1217,9 +1178,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1231,194 +1192,294 @@
     <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" ht="144.75" customHeight="1">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="144.75" customHeight="1">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" s="20" customFormat="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="37.5">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="9" customFormat="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="9" customFormat="1">
+      <c r="A7" s="23"/>
+      <c r="B7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" s="9" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A8" s="23"/>
+      <c r="B8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" s="9" customFormat="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" s="9" customFormat="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" s="9" customFormat="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="21" customFormat="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" spans="1:5" s="25" customFormat="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="1:5" s="25" customFormat="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:5" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" s="25" customFormat="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:5" s="25" customFormat="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:5" s="25" customFormat="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="1:5" s="25" customFormat="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" spans="1:5" s="25" customFormat="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" s="29" customFormat="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:5" s="31" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:5" s="14" customFormat="1"/>
-    <row r="17" spans="2:2" s="14" customFormat="1">
-      <c r="B17" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" s="14" customFormat="1">
-      <c r="B18" s="15" t="s">
-        <v>17</v>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7" s="9" customFormat="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" s="11" customFormat="1" ht="37.5">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="56.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481BB4B7-EA6B-439F-9263-85AC4EBEE7CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E399165-F75D-43B7-945D-5A55FF17699B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="33" t="s">
-        <v>26</v>
+      <c r="A1" s="39" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481BB4B7-EA6B-439F-9263-85AC4EBEE7CA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409.5">
+      <c r="A1" s="39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1BA9D2-1697-40F8-99C9-8B91E2CFDD56}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1427,17 +1488,17 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="33" t="s">
-        <v>25</v>
+      <c r="A1" s="39" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2087CA4F-DF6C-45F4-9466-E7A48C29861E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1446,17 +1507,17 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="33" t="s">
-        <v>24</v>
+      <c r="A1" s="39" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FE5413-47E6-489B-9952-32C794F63798}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1465,12 +1526,12 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="33" t="s">
-        <v>23</v>
+      <c r="A1" s="39" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>